--- a/data/experts/qualitative_analysis_data/second_round/Spinola.xlsx
+++ b/data/experts/qualitative_analysis_data/second_round/Spinola.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ec2aeda8e659f0c/Documents/GitHub/TOCHI-2024/data/experts/qualitative_analysis_data/second_round/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_E87C70FD8917B3D5B8D882285C1E3784A6E66C26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F9321CB-8670-4ACB-AFB1-8CB209C6B483}"/>
+  <bookViews>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Raw" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Interview Analysis (Felipe)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Interview Analysis (Haley)" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Interview Analysis (Chandler)" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Interview Analysis (Discussion)" sheetId="5" r:id="rId8"/>
+    <sheet name="Raw" sheetId="1" r:id="rId1"/>
+    <sheet name="Interview Analysis (Reviewer 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Interview Analysis (Reviewer 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Interview Analysis (Reviewer 3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Interview Analysis (Discussion)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -353,15 +362,6 @@
     <t>After the robot detects multiple failed attempts at an action, it could display hints/help the user;</t>
   </si>
   <si>
-    <t>Codes (Felipe)</t>
-  </si>
-  <si>
-    <t>Codes (Haley)</t>
-  </si>
-  <si>
-    <t>Codes (Chandler)</t>
-  </si>
-  <si>
     <t>Codes (After Discussion)</t>
   </si>
   <si>
@@ -369,50 +369,69 @@
   </si>
   <si>
     <t>Interface is missing precision;</t>
+  </si>
+  <si>
+    <t>Codes (Reviewer 1)</t>
+  </si>
+  <si>
+    <t>Codes (Reviewer 2)</t>
+  </si>
+  <si>
+    <t>Codes (Reviewer 3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -420,7 +439,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -442,102 +461,115 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -727,24 +759,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +810,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -804,7 +839,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="195" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -833,37 +868,37 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="135" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -892,7 +927,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -921,7 +956,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -950,7 +985,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -979,7 +1014,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1043,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1037,12 +1072,12 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1071,7 +1106,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1100,7 +1135,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1129,27 +1164,27 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1213,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1207,7 +1242,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1271,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1300,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1294,362 +1329,363 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" ht="90" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" ht="120" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A80" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A81" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A87" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" ht="105" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" ht="180" x14ac:dyDescent="0.5">
       <c r="A89" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" ht="120" x14ac:dyDescent="0.5">
       <c r="A91" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A94">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1716,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1745,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="195" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1774,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="135" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1767,7 +1803,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1796,7 +1832,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1825,62 +1861,62 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1909,7 +1945,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1938,7 +1974,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1967,7 +2003,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1996,7 +2032,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2025,7 +2061,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -2054,12 +2090,12 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -2088,7 +2124,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -2117,7 +2153,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -2146,12 +2182,12 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -2180,7 +2216,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -2209,17 +2245,17 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2248,12 +2284,12 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2282,7 +2318,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
@@ -2311,7 +2347,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
@@ -2340,37 +2376,37 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
@@ -2378,17 +2414,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
@@ -2417,7 +2453,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>44</v>
       </c>
@@ -2446,7 +2482,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -2475,7 +2511,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
@@ -2504,7 +2540,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -2533,7 +2569,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
@@ -2562,7 +2598,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
@@ -2591,7 +2627,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
@@ -2622,7 +2658,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
@@ -2651,7 +2687,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>52</v>
       </c>
@@ -2680,7 +2716,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>53</v>
       </c>
@@ -2688,142 +2724,142 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" ht="120" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A80" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A81" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>78</v>
       </c>
@@ -2831,22 +2867,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A87" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="180" x14ac:dyDescent="0.5">
       <c r="A89" s="6" t="s">
         <v>82</v>
       </c>
@@ -2854,12 +2890,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="120" x14ac:dyDescent="0.5">
       <c r="A91" s="6" t="s">
         <v>84</v>
       </c>
@@ -2867,95 +2903,96 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A94">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF1C232"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +3023,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3015,7 +3052,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="195" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3044,7 +3081,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="135" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3073,7 +3110,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3102,11 +3139,11 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="3"/>
@@ -3133,56 +3170,56 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -3190,12 +3227,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -3203,7 +3240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -3232,7 +3269,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -3261,7 +3298,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -3290,11 +3327,11 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="3"/>
@@ -3321,7 +3358,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -3350,11 +3387,11 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="3"/>
@@ -3381,12 +3418,12 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -3415,11 +3452,11 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="3"/>
@@ -3446,7 +3483,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -3475,7 +3512,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -3483,7 +3520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -3512,11 +3549,11 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C30" s="3"/>
@@ -3543,17 +3580,17 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -3582,7 +3619,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -3590,7 +3627,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -3619,7 +3656,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
@@ -3648,11 +3685,11 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="3"/>
@@ -3679,12 +3716,12 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
@@ -3692,12 +3729,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
@@ -3705,17 +3742,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
@@ -3723,17 +3760,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
@@ -3762,11 +3799,11 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="3"/>
@@ -3793,7 +3830,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -3822,11 +3859,11 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C50" s="3"/>
@@ -3853,7 +3890,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -3882,11 +3919,11 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C52" s="3"/>
@@ -3913,7 +3950,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
@@ -3942,7 +3979,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
@@ -3973,7 +4010,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
@@ -4002,7 +4039,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>52</v>
       </c>
@@ -4031,7 +4068,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>53</v>
       </c>
@@ -4039,12 +4076,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>55</v>
       </c>
@@ -4052,12 +4089,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
@@ -4065,17 +4102,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>36</v>
       </c>
@@ -4083,17 +4120,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
@@ -4101,17 +4138,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>36</v>
       </c>
@@ -4119,17 +4156,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="6" t="s">
         <v>67</v>
       </c>
@@ -4137,12 +4174,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>36</v>
       </c>
@@ -4150,17 +4187,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>71</v>
       </c>
@@ -4168,17 +4205,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A80" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A81" s="6" t="s">
         <v>74</v>
       </c>
@@ -4186,12 +4223,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="6" t="s">
         <v>76</v>
       </c>
@@ -4199,12 +4236,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>78</v>
       </c>
@@ -4212,12 +4249,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A87" s="6" t="s">
         <v>80</v>
       </c>
@@ -4225,12 +4262,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="180" x14ac:dyDescent="0.5">
       <c r="A89" s="6" t="s">
         <v>82</v>
       </c>
@@ -4238,12 +4275,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="120" x14ac:dyDescent="0.5">
       <c r="A91" s="6" t="s">
         <v>84</v>
       </c>
@@ -4251,12 +4288,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>86</v>
       </c>
@@ -4264,85 +4301,86 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A94">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4373,7 +4411,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4402,7 +4440,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="195" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4431,7 +4469,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="135" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4460,7 +4498,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -4489,11 +4527,11 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="3"/>
@@ -4520,77 +4558,77 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -4619,7 +4657,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -4648,7 +4686,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -4677,11 +4715,11 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="3"/>
@@ -4708,7 +4746,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -4737,11 +4775,11 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="3"/>
@@ -4768,12 +4806,12 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4802,11 +4840,11 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="3"/>
@@ -4833,7 +4871,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -4862,15 +4900,15 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="B28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -4899,11 +4937,11 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C30" s="3"/>
@@ -4930,17 +4968,17 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -4969,15 +5007,15 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="B34" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -5006,7 +5044,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
@@ -5035,11 +5073,11 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="3"/>
@@ -5066,61 +5104,61 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="B39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="B41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
@@ -5149,11 +5187,11 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="3"/>
@@ -5180,7 +5218,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -5209,11 +5247,11 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C50" s="3"/>
@@ -5240,7 +5278,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -5269,11 +5307,11 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C52" s="3"/>
@@ -5300,7 +5338,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
@@ -5329,7 +5367,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
@@ -5360,7 +5398,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
@@ -5389,7 +5427,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>52</v>
       </c>
@@ -5418,7 +5456,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>53</v>
       </c>
@@ -5426,97 +5464,97 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="B59" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="B61" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="B64" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="B67" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="B70" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="6" t="s">
         <v>67</v>
       </c>
@@ -5524,61 +5562,61 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="B75" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="B78" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A80" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A81" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="B81" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="6" t="s">
         <v>76</v>
       </c>
@@ -5586,12 +5624,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>78</v>
       </c>
@@ -5599,12 +5637,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A87" s="6" t="s">
         <v>80</v>
       </c>
@@ -5612,38 +5650,38 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="180" x14ac:dyDescent="0.5">
       <c r="A89" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="120" x14ac:dyDescent="0.5">
       <c r="A91" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>86</v>
       </c>
@@ -5651,99 +5689,102 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A94">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4A86E8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="5" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="5" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -5766,13 +5807,13 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5795,13 +5836,13 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="195" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5824,90 +5865,90 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="135" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="3"/>
@@ -5931,13 +5972,13 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5960,13 +6001,13 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5989,20 +6030,20 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="B13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F13" s="3"/>
@@ -6026,13 +6067,13 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -6055,20 +6096,20 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="3"/>
@@ -6092,29 +6133,29 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F17" s="3"/>
@@ -6138,13 +6179,13 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -6167,13 +6208,13 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -6196,65 +6237,65 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6277,13 +6318,13 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6306,20 +6347,20 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="B26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F26" s="3"/>
@@ -6343,13 +6384,13 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -6372,20 +6413,20 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="B28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F28" s="3"/>
@@ -6409,918 +6450,918 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="B30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="B34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="B37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="B39" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="B41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="16" t="s">
+      <c r="B48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="B50" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="14" t="s">
+      <c r="B52" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="B59" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="B61" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="90" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="D64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="D67" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="D70" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="E73" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D75" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="D75" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="B78" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="D78" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A80" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A81" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D81" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="D81" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="E83" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A87" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="B87" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="105" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="180" x14ac:dyDescent="0.5">
       <c r="A89" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A91" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="B93" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="4"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A96" s="4"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="4"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="4"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="4"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="4"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="4"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="4"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="4"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="4"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="4"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="4"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
       <c r="E110" s="3"/>
     </row>
   </sheetData>
@@ -7329,6 +7370,7 @@
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>